--- a/4.1.1-Suscripciones-TV-Paga_Mar-2022.xlsx
+++ b/4.1.1-Suscripciones-TV-Paga_Mar-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RAÚL\3. ARCOTEL\ARCOTEL MERCADOS 2021\CONCENTRACIÓN DE MERCADO (ART 34)\ESTADÍSTICAS\Automatización\AVS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072A7A66-1A6E-4074-8E76-9ED0EA1212B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{797D246C-5475-4244-A311-37F737C0CD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="599" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="N° Suscripciones x Prestador" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'N° Suscripciones x Prestador'!$A$1:$BW$359</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'N° Suscripciones x Prestador'!$A$1:$BZ$359</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="976">
   <si>
     <t>PACHECO SAGUAY LUIS EDUARDO</t>
   </si>
@@ -632,9 +632,6 @@
     <t>CINE CABLE TELEVISION QUEVEDO</t>
   </si>
   <si>
-    <t>QUEVEDO</t>
-  </si>
-  <si>
     <t>BABAHOYO</t>
   </si>
   <si>
@@ -1676,9 +1673,6 @@
     <t>ORMAZA CHICA GEN KLEBER</t>
   </si>
   <si>
-    <t>SERVICIOS  DE TELECOMUNICACIONES PAJANTEVE S.A.</t>
-  </si>
-  <si>
     <t>SUPERCABLEFILS CIA.LTDA.</t>
   </si>
   <si>
@@ -1793,9 +1787,6 @@
     <t>CANTON RIOVERDE</t>
   </si>
   <si>
-    <t>CANTONES QUININDE Y LA CONCORDIA</t>
-  </si>
-  <si>
     <t>SERVICIOS DE TELECOMUNICACIONES TROPICTV S.A.</t>
   </si>
   <si>
@@ -1958,9 +1949,6 @@
     <t>CONTINEN TV CIA. LTDA.</t>
   </si>
   <si>
-    <t>CORPORACION  TENAVISION CATV CIA. LTDA.</t>
-  </si>
-  <si>
     <t>DIGITALCABLE S.A.</t>
   </si>
   <si>
@@ -1985,9 +1973,6 @@
     <t>SERVICIOS DE TELECOMUNICACIONES GUALACEOTEVE CIA. LTDA.</t>
   </si>
   <si>
-    <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CÍA. LTDA.</t>
-  </si>
-  <si>
     <t>SERVICIOS MULTICABLE ATUNTAQUI MULTICABLEATUNTAQUI S.A.</t>
   </si>
   <si>
@@ -2693,9 +2678,6 @@
     <t>CANTONES ELOY ALFARO Y RIO VERDE</t>
   </si>
   <si>
-    <t>CANTONES BUENA FE Y EL CARMEN</t>
-  </si>
-  <si>
     <t>CANTON CHINCHIPE</t>
   </si>
   <si>
@@ -2732,9 +2714,6 @@
     <t>AMAGUAÑA, CONOCOTO, ALANGASI, UYUMBICHO, TAMBILLO, SANGOLQUI</t>
   </si>
   <si>
-    <t>TONCHIGUE, SUA</t>
-  </si>
-  <si>
     <t>PUEBLOVIEJO, SAN JUAN, ISLA DE BEJUCAL, BABAHOYO, CARACOL, LA UNION</t>
   </si>
   <si>
@@ -2750,9 +2729,6 @@
     <t>INTERCOM TV</t>
   </si>
   <si>
-    <t>COLORADOSVISION CIA LTDA</t>
-  </si>
-  <si>
     <t>AGUILERA JIMENEZ JORGE MAURICIO</t>
   </si>
   <si>
@@ -2807,9 +2783,6 @@
     <t xml:space="preserve">CANTONES DAULE, SANTA LUCIA, NOBOL, LOMAS DE SARGENTILLO, ISIDRO AYORA Y LA </t>
   </si>
   <si>
-    <t xml:space="preserve">CANTON LAGO AGRIO, EL DORADO DE CASCALES, SEVILLA, SHUSHUFINDI, TARAPOA, </t>
-  </si>
-  <si>
     <t>LA MANA, CANTON VALENCIA, LA ESPERANZA, EL TINGO DE PUJILÍ, QUEVEDO</t>
   </si>
   <si>
@@ -2958,6 +2931,36 @@
   </si>
   <si>
     <t>GUARANDA, SAN MIGUEL, SAN JOSE DE CHIMBO</t>
+  </si>
+  <si>
+    <t>CORPORACION TENAVISION CATV CIA. LTDA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cantón Lago Agrio, El Dorado de Cascales, Sevilla, Shushufindi, San Roque, San Pedro de los Cofanes, </t>
+  </si>
+  <si>
+    <t>CANTONES QUININDE Y LA CONCORDIA, LAS GOLONDRINAS (COTACACHI)</t>
+  </si>
+  <si>
+    <t>CANTONES BUENA FE Y EL CARMEN, CIUDAD QUEVEDO</t>
+  </si>
+  <si>
+    <t>QUEVEDO, SAN JACINTO DE BUENA FE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CANTON LA TRONCAL, PARROQUIA PANCHO NEGRO Y MANUEL J CALLE, EL TRIUNFO </t>
+  </si>
+  <si>
+    <t>SERVICIOS DE TELECOMUNICACIONES PAJANTEVE S.A.</t>
+  </si>
+  <si>
+    <t>SERVICIOS DE TELECOMUNICACIONES LATEVECOM CIA. LTDA.</t>
+  </si>
+  <si>
+    <t>TONCHIGUE</t>
+  </si>
+  <si>
+    <t>COLORADOSVISION CIA. LTDA.</t>
   </si>
 </sst>
 </file>
@@ -2968,7 +2971,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3180,6 +3183,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -4857,7 +4866,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5157,6 +5166,30 @@
     </xf>
     <xf numFmtId="17" fontId="26" fillId="41" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="712">
@@ -6218,10 +6251,10 @@
   <dimension ref="A1:BZ359"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="BP345" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="BZ359" sqref="BZ359"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6289,22 +6322,22 @@
   <sheetData>
     <row r="1" spans="1:78" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C1" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="E1" s="47" t="s">
         <v>382</v>
       </c>
-      <c r="D1" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="E1" s="47" t="s">
+      <c r="F1" s="47" t="s">
         <v>383</v>
-      </c>
-      <c r="F1" s="47" t="s">
-        <v>384</v>
       </c>
       <c r="G1" s="48">
         <v>42461</v>
@@ -6528,7 +6561,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C2" s="32" t="s">
         <v>106</v>
@@ -6698,7 +6731,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C3" s="32" t="s">
         <v>48</v>
@@ -6832,19 +6865,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C4" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G4" s="14">
         <v>466</v>
@@ -7068,19 +7101,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="17"/>
@@ -7220,19 +7253,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="17"/>
@@ -7348,19 +7381,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="17"/>
@@ -7470,19 +7503,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17"/>
@@ -7568,19 +7601,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C9" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="G9" s="7">
         <v>44</v>
@@ -7708,19 +7741,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C10" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G10" s="8">
         <v>24016</v>
@@ -7944,19 +7977,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C11" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>344</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
@@ -8102,19 +8135,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
@@ -8262,7 +8295,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C13" s="32" t="s">
         <v>61</v>
@@ -8274,7 +8307,7 @@
         <v>60</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G13" s="14">
         <v>72</v>
@@ -8432,7 +8465,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C14" s="32" t="s">
         <v>133</v>
@@ -8566,19 +8599,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -8802,7 +8835,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C16" s="32" t="s">
         <v>76</v>
@@ -8814,7 +8847,7 @@
         <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G16" s="14">
         <v>325</v>
@@ -9038,19 +9071,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C17" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>363</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G17" s="14">
         <v>248</v>
@@ -9274,7 +9307,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C18" s="32" t="s">
         <v>122</v>
@@ -9286,7 +9319,7 @@
         <v>118</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="G18" s="8">
         <v>171</v>
@@ -9510,19 +9543,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C19" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>470</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
@@ -9602,19 +9635,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G20" s="21"/>
       <c r="H20" s="21"/>
@@ -9808,19 +9841,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
@@ -9934,10 +9967,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>142</v>
@@ -9946,7 +9979,7 @@
         <v>118</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -10090,19 +10123,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C23" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="G23" s="8">
         <v>308</v>
@@ -10326,19 +10359,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G24" s="11">
         <v>0</v>
@@ -10526,19 +10559,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C25" s="32" t="s">
+        <v>535</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>537</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="21"/>
@@ -10732,19 +10765,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C26" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="E26" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="G26" s="8">
         <v>374</v>
@@ -10968,7 +11001,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>154</v>
@@ -11168,19 +11201,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="G28" s="8">
         <v>32</v>
@@ -11320,10 +11353,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>191</v>
@@ -11332,7 +11365,7 @@
         <v>189</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G29" s="8">
         <v>732</v>
@@ -11556,19 +11589,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G30" s="11">
         <v>271</v>
@@ -11792,7 +11825,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C31" s="32" t="s">
         <v>141</v>
@@ -11962,7 +11995,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C32" s="32" t="s">
         <v>116</v>
@@ -12132,13 +12165,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>69</v>
@@ -12230,7 +12263,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C34" s="32" t="s">
         <v>39</v>
@@ -12466,7 +12499,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C35" s="32" t="s">
         <v>158</v>
@@ -12624,19 +12657,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G36" s="11">
         <v>0</v>
@@ -12860,19 +12893,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C37" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>446</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>447</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
@@ -13096,7 +13129,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C38" s="32" t="s">
         <v>175</v>
@@ -13266,19 +13299,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="21"/>
@@ -13460,10 +13493,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>188</v>
@@ -13696,13 +13729,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>153</v>
@@ -13935,10 +13968,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>152</v>
@@ -14171,13 +14204,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>69</v>
@@ -14407,19 +14440,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
@@ -14505,19 +14538,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
@@ -14603,19 +14636,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G46" s="8">
         <v>2065</v>
@@ -14839,19 +14872,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G47" s="8">
         <v>2100</v>
@@ -15075,19 +15108,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G48" s="11">
         <v>0</v>
@@ -15311,19 +15344,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G49" s="11">
         <v>0</v>
@@ -15547,19 +15580,19 @@
         <v>49</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C50" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>297</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>298</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G50" s="11">
         <v>0</v>
@@ -15687,19 +15720,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C51" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="E51" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="G51" s="11">
         <v>0</v>
@@ -15821,19 +15854,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G52" s="21"/>
       <c r="H52" s="21"/>
@@ -15967,10 +16000,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>129</v>
@@ -15979,7 +16012,7 @@
         <v>118</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="G53" s="8">
         <v>1130</v>
@@ -16203,7 +16236,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C54" s="32" t="s">
         <v>149</v>
@@ -16439,19 +16472,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C55" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="G55" s="7">
         <v>65</v>
@@ -16675,19 +16708,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G56" s="8">
         <v>503</v>
@@ -16911,19 +16944,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G57" s="26"/>
       <c r="H57" s="26"/>
@@ -17099,19 +17132,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C58" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>331</v>
-      </c>
       <c r="E58" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="G58" s="8">
         <v>2022</v>
@@ -17269,7 +17302,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C59" s="32" t="s">
         <v>169</v>
@@ -17409,7 +17442,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C60" s="32" t="s">
         <v>169</v>
@@ -17421,7 +17454,7 @@
         <v>153</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G60" s="14">
         <v>131</v>
@@ -17645,19 +17678,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C61" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="E61" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>369</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>370</v>
       </c>
       <c r="G61" s="8">
         <v>367</v>
@@ -17881,7 +17914,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C62" s="32" t="s">
         <v>29</v>
@@ -17893,7 +17926,7 @@
         <v>26</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="G62" s="14">
         <v>148</v>
@@ -18117,19 +18150,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C63" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E63" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
@@ -18247,13 +18280,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C64" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>378</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>379</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>153</v>
@@ -18483,13 +18516,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>47</v>
@@ -18599,19 +18632,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="G66" s="21"/>
       <c r="H66" s="21"/>
@@ -18799,19 +18832,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="G67" s="21"/>
       <c r="H67" s="21"/>
@@ -18927,7 +18960,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C68" s="32" t="s">
         <v>4</v>
@@ -18939,7 +18972,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G68" s="8">
         <v>581</v>
@@ -19163,19 +19196,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C69" s="32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="G69" s="8">
         <v>34</v>
@@ -19402,19 +19435,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G70" s="21"/>
       <c r="H70" s="21"/>
@@ -19608,13 +19641,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>100</v>
@@ -19784,19 +19817,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G72" s="17"/>
       <c r="H72" s="17"/>
@@ -19882,10 +19915,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>159</v>
@@ -20040,19 +20073,19 @@
         <v>73</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
@@ -20168,19 +20201,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D75" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="G75" s="8">
         <v>389</v>
@@ -20332,7 +20365,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C76" s="32" t="s">
         <v>147</v>
@@ -20484,7 +20517,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C77" s="32" t="s">
         <v>166</v>
@@ -20720,19 +20753,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C78" s="32" t="s">
-        <v>905</v>
+        <v>568</v>
+      </c>
+      <c r="C78" s="109" t="s">
+        <v>975</v>
       </c>
       <c r="D78" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E78" s="110" t="s">
         <v>327</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="F78" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>329</v>
       </c>
       <c r="G78" s="8">
         <v>12600</v>
@@ -20956,19 +20989,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F79" s="52" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="G79" s="52"/>
       <c r="H79" s="87"/>
@@ -21072,10 +21105,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C80" s="32" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>112</v>
@@ -21084,7 +21117,7 @@
         <v>113</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G80" s="11">
         <v>0</v>
@@ -21311,19 +21344,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G81" s="11">
         <v>0</v>
@@ -21550,19 +21583,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C82" s="32" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G82" s="8">
         <v>0</v>
@@ -21786,10 +21819,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>127</v>
@@ -21798,7 +21831,7 @@
         <v>118</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G83" s="14">
         <v>1478</v>
@@ -22022,7 +22055,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C84" s="32" t="s">
         <v>163</v>
@@ -22258,19 +22291,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G85" s="8">
         <v>271</v>
@@ -22494,19 +22527,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C86" s="32" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="G86" s="26"/>
       <c r="H86" s="26"/>
@@ -22682,19 +22715,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C87" s="32" t="s">
         <v>63</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="G87" s="14">
         <v>2915</v>
@@ -22918,7 +22951,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C88" s="32" t="s">
         <v>63</v>
@@ -22930,7 +22963,7 @@
         <v>60</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G88" s="8">
         <v>864</v>
@@ -23154,19 +23187,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C89" s="32" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="E89" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F89" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G89" s="8"/>
       <c r="H89" s="8"/>
@@ -23276,16 +23309,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C90" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="D90" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="E90" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>7</v>
@@ -23512,10 +23545,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C91" s="32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>130</v>
@@ -23524,7 +23557,7 @@
         <v>118</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G91" s="8">
         <v>24010</v>
@@ -23748,10 +23781,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C92" s="32" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>146</v>
@@ -23760,7 +23793,7 @@
         <v>144</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="G92" s="8">
         <v>1309</v>
@@ -23987,19 +24020,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C93" s="32" t="s">
-        <v>641</v>
+        <v>568</v>
+      </c>
+      <c r="C93" s="109" t="s">
+        <v>966</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="G93" s="8">
         <v>665</v>
@@ -24223,19 +24256,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C94" s="32" t="s">
         <v>36</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G94" s="14">
         <v>1634</v>
@@ -24429,19 +24462,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C95" s="32" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D95" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="F95" s="4" t="s">
         <v>295</v>
-      </c>
-      <c r="F95" s="4" t="s">
-        <v>296</v>
       </c>
       <c r="G95" s="8">
         <v>135</v>
@@ -24599,19 +24632,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D96" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F96" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="G96" s="8">
         <v>355210</v>
@@ -24838,13 +24871,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E97" s="4" t="s">
         <v>113</v>
@@ -25077,7 +25110,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C98" s="32" t="s">
         <v>27</v>
@@ -25089,7 +25122,7 @@
         <v>26</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G98" s="14">
         <v>600</v>
@@ -25316,19 +25349,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E99" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G99" s="8">
         <v>1474</v>
@@ -25552,10 +25585,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C100" s="32" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>65</v>
@@ -25788,19 +25821,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C101" s="32" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="E101" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G101" s="17"/>
       <c r="H101" s="17"/>
@@ -25886,7 +25919,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C102" s="32" t="s">
         <v>87</v>
@@ -26122,19 +26155,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C103" s="32" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="E103" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
@@ -26274,19 +26307,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C104" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="G104" s="11">
         <v>0</v>
@@ -26510,19 +26543,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C105" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E105" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G105" s="26"/>
       <c r="H105" s="26"/>
@@ -26716,19 +26749,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C106" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="G106" s="21"/>
       <c r="H106" s="21"/>
@@ -26880,19 +26913,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E107" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
@@ -27068,10 +27101,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C108" s="32" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>99</v>
@@ -27080,7 +27113,7 @@
         <v>100</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="G108" s="17"/>
       <c r="H108" s="17"/>
@@ -27166,10 +27199,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C109" s="32" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>99</v>
@@ -27372,10 +27405,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C110" s="32" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>181</v>
@@ -27608,19 +27641,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C111" s="32" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G111" s="8">
         <v>507809</v>
@@ -27844,19 +27877,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C112" s="32" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E112" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G112" s="8">
         <v>3626</v>
@@ -28080,19 +28113,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C113" s="32" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="G113" s="14">
         <v>0</v>
@@ -28316,10 +28349,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C114" s="32" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>136</v>
@@ -28328,7 +28361,7 @@
         <v>118</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G114" s="8">
         <v>27034</v>
@@ -28516,10 +28549,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C115" s="32" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>136</v>
@@ -28668,19 +28701,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C116" s="32" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G116" s="8">
         <v>2798</v>
@@ -28820,19 +28853,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="38" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C117" s="32" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>136</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G117" s="8">
         <v>9971</v>
@@ -28972,7 +29005,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C118" s="32" t="s">
         <v>195</v>
@@ -28984,7 +29017,7 @@
         <v>189</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="G118" s="8">
         <v>808</v>
@@ -29208,19 +29241,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C119" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D119" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G119" s="8">
         <v>133</v>
@@ -29444,19 +29477,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C120" s="32" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="G120" s="16"/>
       <c r="H120" s="17"/>
@@ -29599,19 +29632,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C121" s="32" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G121" s="7">
         <v>1308</v>
@@ -29838,10 +29871,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C122" s="32" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>6</v>
@@ -30032,19 +30065,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C123" s="32" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E123" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
@@ -30160,19 +30193,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C124" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="E124" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F124" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="G124" s="8">
         <v>286</v>
@@ -30396,19 +30429,19 @@
         <v>124</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C125" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="E125" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G125" s="12">
         <v>0</v>
@@ -30530,19 +30563,19 @@
         <v>125</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C126" s="32" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="E126" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F126" s="28" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
@@ -30709,19 +30742,19 @@
         <v>126</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C127" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="E127" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="F127" s="4" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G127" s="14">
         <v>45</v>
@@ -30945,19 +30978,19 @@
         <v>127</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="G128" s="11">
         <v>0</v>
@@ -31181,7 +31214,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C129" s="32" t="s">
         <v>80</v>
@@ -31417,10 +31450,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C130" s="32" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>161</v>
@@ -31551,19 +31584,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C131" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="E131" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F131" s="4" t="s">
         <v>366</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>367</v>
       </c>
       <c r="G131" s="7">
         <v>140</v>
@@ -31757,19 +31790,19 @@
         <v>131</v>
       </c>
       <c r="B132" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="G132" s="17"/>
       <c r="H132" s="17"/>
@@ -31885,19 +31918,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C133" s="32" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="E133" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="G133" s="17"/>
       <c r="H133" s="17"/>
@@ -32013,19 +32046,19 @@
         <v>133</v>
       </c>
       <c r="B134" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C134" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="E134" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="F134" s="4" t="s">
         <v>282</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="G134" s="11">
         <v>1335</v>
@@ -32249,19 +32282,19 @@
         <v>134</v>
       </c>
       <c r="B135" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C135" s="32" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G135" s="11">
         <v>0</v>
@@ -32485,19 +32518,19 @@
         <v>135</v>
       </c>
       <c r="B136" s="40" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="E136" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="G136" s="21"/>
       <c r="H136" s="21"/>
@@ -32617,19 +32650,19 @@
         <v>136</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C137" s="32" t="s">
+        <v>528</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>530</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G137" s="21"/>
       <c r="H137" s="21"/>
@@ -32826,19 +32859,19 @@
         <v>137</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="G138" s="21"/>
       <c r="H138" s="21"/>
@@ -32954,19 +32987,19 @@
         <v>138</v>
       </c>
       <c r="B139" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C139" s="32" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F139" s="52" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
@@ -33070,19 +33103,19 @@
         <v>139</v>
       </c>
       <c r="B140" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C140" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F140" s="4" t="s">
         <v>346</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>347</v>
       </c>
       <c r="G140" s="7">
         <v>549</v>
@@ -33222,19 +33255,19 @@
         <v>140</v>
       </c>
       <c r="B141" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C141" s="32" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="G141" s="21"/>
       <c r="H141" s="21"/>
@@ -33416,19 +33449,19 @@
         <v>141</v>
       </c>
       <c r="B142" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="C142" s="32" t="s">
         <v>570</v>
       </c>
-      <c r="C142" s="32" t="s">
-        <v>572</v>
-      </c>
       <c r="D142" s="5" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G142" s="21"/>
       <c r="H142" s="21"/>
@@ -33622,19 +33655,19 @@
         <v>142</v>
       </c>
       <c r="B143" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C143" s="32" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G143" s="21"/>
       <c r="H143" s="21"/>
@@ -33822,10 +33855,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>10</v>
@@ -33834,7 +33867,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="G144" s="14">
         <v>338</v>
@@ -34058,19 +34091,19 @@
         <v>144</v>
       </c>
       <c r="B145" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C145" s="32" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="G145" s="17"/>
       <c r="H145" s="17"/>
@@ -34156,19 +34189,19 @@
         <v>145</v>
       </c>
       <c r="B146" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C146" s="32" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G146" s="21"/>
       <c r="H146" s="21"/>
@@ -34356,19 +34389,19 @@
         <v>146</v>
       </c>
       <c r="B147" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C147" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="E147" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F147" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="G147" s="8">
         <v>435</v>
@@ -34592,19 +34625,19 @@
         <v>147</v>
       </c>
       <c r="B148" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C148" s="32" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>113</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G148" s="21"/>
       <c r="H148" s="21"/>
@@ -34798,19 +34831,19 @@
         <v>148</v>
       </c>
       <c r="B149" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C149" s="32" t="s">
+        <v>518</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D149" s="5" t="s">
-        <v>520</v>
-      </c>
       <c r="E149" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="G149" s="21"/>
       <c r="H149" s="21"/>
@@ -34980,19 +35013,19 @@
         <v>149</v>
       </c>
       <c r="B150" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C150" s="32" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E150" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="G150" s="8">
         <v>461</v>
@@ -35216,19 +35249,19 @@
         <v>150</v>
       </c>
       <c r="B151" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C151" s="32" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G151" s="34"/>
       <c r="H151" s="19"/>
@@ -35338,19 +35371,19 @@
         <v>151</v>
       </c>
       <c r="B152" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C152" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D152" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F152" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="G152" s="11">
         <v>271</v>
@@ -35478,10 +35511,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C153" s="32" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>192</v>
@@ -35490,7 +35523,7 @@
         <v>189</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="G153" s="8">
         <v>237</v>
@@ -35714,19 +35747,19 @@
         <v>153</v>
       </c>
       <c r="B154" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C154" s="32" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="G154" s="21"/>
       <c r="H154" s="21"/>
@@ -35920,19 +35953,19 @@
         <v>154</v>
       </c>
       <c r="B155" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C155" s="32" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G155" s="17"/>
       <c r="H155" s="17"/>
@@ -36018,19 +36051,19 @@
         <v>155</v>
       </c>
       <c r="B156" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C156" s="32" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G156" s="17"/>
       <c r="H156" s="17"/>
@@ -36146,19 +36179,19 @@
         <v>156</v>
       </c>
       <c r="B157" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C157" s="32" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="E157" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G157" s="17"/>
       <c r="H157" s="17"/>
@@ -36286,7 +36319,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C158" s="32" t="s">
         <v>124</v>
@@ -36420,19 +36453,19 @@
         <v>158</v>
       </c>
       <c r="B159" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C159" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="G159" s="8">
         <v>1288</v>
@@ -36656,19 +36689,19 @@
         <v>159</v>
       </c>
       <c r="B160" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C160" s="32" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E160" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="G160" s="16"/>
       <c r="H160" s="17"/>
@@ -36796,19 +36829,19 @@
         <v>160</v>
       </c>
       <c r="B161" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C161" s="32" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G161" s="8">
         <v>1073</v>
@@ -37032,19 +37065,19 @@
         <v>161</v>
       </c>
       <c r="B162" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C162" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="D162" s="5" t="s">
-        <v>244</v>
-      </c>
       <c r="E162" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G162" s="8">
         <v>914</v>
@@ -37268,10 +37301,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C163" s="32" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>131</v>
@@ -37402,19 +37435,19 @@
         <v>163</v>
       </c>
       <c r="B164" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C164" s="32" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="G164" s="16"/>
       <c r="H164" s="17"/>
@@ -37538,19 +37571,19 @@
         <v>164</v>
       </c>
       <c r="B165" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C165" s="32" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G165" s="21"/>
       <c r="H165" s="21"/>
@@ -37743,7 +37776,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C166" s="32" t="s">
         <v>24</v>
@@ -37752,10 +37785,10 @@
         <v>25</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G166" s="8">
         <v>113</v>
@@ -37907,7 +37940,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C167" s="32" t="s">
         <v>24</v>
@@ -38143,7 +38176,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C168" s="32" t="s">
         <v>24</v>
@@ -38152,10 +38185,10 @@
         <v>25</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G168" s="8">
         <v>446</v>
@@ -38379,19 +38412,19 @@
         <v>168</v>
       </c>
       <c r="B169" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C169" s="32" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G169" s="11">
         <v>0</v>
@@ -38561,19 +38594,19 @@
         <v>169</v>
       </c>
       <c r="B170" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C170" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="E170" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F170" s="4" t="s">
         <v>221</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>222</v>
       </c>
       <c r="G170" s="8">
         <v>490</v>
@@ -38797,7 +38830,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C171" s="32" t="s">
         <v>184</v>
@@ -39036,19 +39069,19 @@
         <v>171</v>
       </c>
       <c r="B172" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C172" s="32" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="G172" s="51"/>
       <c r="H172" s="52"/>
@@ -39173,19 +39206,19 @@
         <v>172</v>
       </c>
       <c r="B173" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C173" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="E173" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F173" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="G173" s="11">
         <v>8</v>
@@ -39409,19 +39442,19 @@
         <v>173</v>
       </c>
       <c r="B174" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C174" s="32" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G174" s="11">
         <v>0</v>
@@ -39645,19 +39678,19 @@
         <v>174</v>
       </c>
       <c r="B175" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C175" s="32" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G175" s="16"/>
       <c r="H175" s="17"/>
@@ -39809,10 +39842,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C176" s="32" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>45</v>
@@ -39821,7 +39854,7 @@
         <v>41</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G176" s="21"/>
       <c r="H176" s="21"/>
@@ -39943,10 +39976,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C177" s="32" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>45</v>
@@ -40077,19 +40110,19 @@
         <v>177</v>
       </c>
       <c r="B178" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C178" s="32" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="G178" s="16"/>
       <c r="H178" s="17"/>
@@ -40199,19 +40232,19 @@
         <v>178</v>
       </c>
       <c r="B179" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C179" s="32" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G179" s="8">
         <v>58</v>
@@ -40435,10 +40468,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C180" s="32" t="s">
-        <v>517</v>
+        <v>568</v>
+      </c>
+      <c r="C180" s="109" t="s">
+        <v>516</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>103</v>
@@ -40446,8 +40479,8 @@
       <c r="E180" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F180" s="4" t="s">
-        <v>586</v>
+      <c r="F180" s="110" t="s">
+        <v>968</v>
       </c>
       <c r="G180" s="8">
         <v>1021</v>
@@ -40671,10 +40704,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>103</v>
@@ -40805,19 +40838,19 @@
         <v>181</v>
       </c>
       <c r="B182" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C182" s="32" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="G182" s="16"/>
       <c r="H182" s="17"/>
@@ -40961,19 +40994,19 @@
         <v>182</v>
       </c>
       <c r="B183" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C183" s="32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G183" s="11">
         <v>0</v>
@@ -41197,19 +41230,19 @@
         <v>183</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C184" s="32" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="G184" s="16"/>
       <c r="H184" s="17"/>
@@ -41335,19 +41368,19 @@
         <v>184</v>
       </c>
       <c r="B185" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C185" s="32" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="E185" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="G185" s="17"/>
       <c r="H185" s="17"/>
@@ -41471,19 +41504,19 @@
         <v>185</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C186" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="D186" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D186" s="5" t="s">
-        <v>226</v>
-      </c>
       <c r="E186" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G186" s="11">
         <v>113</v>
@@ -41707,19 +41740,19 @@
         <v>186</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C187" s="32" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E187" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="G187" s="16"/>
       <c r="H187" s="17"/>
@@ -41847,19 +41880,19 @@
         <v>187</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C188" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="E188" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G188" s="11">
         <v>0</v>
@@ -42086,19 +42119,19 @@
         <v>188</v>
       </c>
       <c r="B189" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C189" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E189" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="G189" s="44"/>
       <c r="H189" s="44"/>
@@ -42214,19 +42247,19 @@
         <v>189</v>
       </c>
       <c r="B190" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C190" s="32" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E190" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="G190" s="44"/>
       <c r="H190" s="44"/>
@@ -42367,13 +42400,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C191" s="32" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E191" s="4" t="s">
         <v>69</v>
@@ -42520,19 +42553,19 @@
         <v>191</v>
       </c>
       <c r="B192" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C192" s="32" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E192" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G192" s="21"/>
       <c r="H192" s="21"/>
@@ -42669,7 +42702,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C193" s="32" t="s">
         <v>53</v>
@@ -42881,7 +42914,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C194" s="32" t="s">
         <v>2</v>
@@ -42893,7 +42926,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="G194" s="8">
         <v>1106</v>
@@ -43021,7 +43054,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C195" s="32" t="s">
         <v>2</v>
@@ -43161,10 +43194,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C196" s="32" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>57</v>
@@ -43320,19 +43353,19 @@
         <v>196</v>
       </c>
       <c r="B197" s="59" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C197" s="28" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F197" s="28" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="G197" s="21"/>
       <c r="H197" s="21"/>
@@ -43448,7 +43481,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C198" s="32" t="s">
         <v>128</v>
@@ -43460,7 +43493,7 @@
         <v>189</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G198" s="12">
         <v>0</v>
@@ -43618,7 +43651,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C199" s="32" t="s">
         <v>128</v>
@@ -43630,7 +43663,7 @@
         <v>189</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="G199" s="8">
         <v>1189</v>
@@ -43854,19 +43887,19 @@
         <v>199</v>
       </c>
       <c r="B200" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C200" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D200" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="E200" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F200" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>267</v>
       </c>
       <c r="G200" s="8">
         <v>64</v>
@@ -44084,19 +44117,19 @@
         <v>200</v>
       </c>
       <c r="B201" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C201" s="32" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="D201" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F201" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="E201" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="F201" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="G201" s="11">
         <v>0</v>
@@ -44323,19 +44356,19 @@
         <v>201</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C202" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="E202" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F202" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="E202" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="G202" s="11">
         <v>0</v>
@@ -44493,19 +44526,19 @@
         <v>202</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C203" s="32" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E203" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F203" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G203" s="8">
         <v>160</v>
@@ -44729,19 +44762,19 @@
         <v>203</v>
       </c>
       <c r="B204" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C204" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="E204" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F204" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="E204" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="G204" s="11">
         <v>90</v>
@@ -44875,7 +44908,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C205" s="32" t="s">
         <v>56</v>
@@ -45045,19 +45078,19 @@
         <v>205</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C206" s="32" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G206" s="11">
         <v>0</v>
@@ -45281,19 +45314,19 @@
         <v>206</v>
       </c>
       <c r="B207" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C207" s="32" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D207" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F207" s="4" t="s">
         <v>240</v>
-      </c>
-      <c r="E207" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F207" s="4" t="s">
-        <v>241</v>
       </c>
       <c r="G207" s="14">
         <v>300</v>
@@ -45517,7 +45550,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C208" s="32" t="s">
         <v>172</v>
@@ -45753,19 +45786,19 @@
         <v>208</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C209" s="32" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F209" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G209" s="21"/>
       <c r="H209" s="21"/>
@@ -45881,7 +45914,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C210" s="32" t="s">
         <v>70</v>
@@ -45893,7 +45926,7 @@
         <v>69</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G210" s="8">
         <v>194</v>
@@ -46117,19 +46150,19 @@
         <v>210</v>
       </c>
       <c r="B211" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C211" s="32" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E211" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F211" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G211" s="21"/>
       <c r="H211" s="21"/>
@@ -46309,19 +46342,19 @@
         <v>211</v>
       </c>
       <c r="B212" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C212" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="G212" s="8">
         <v>1170</v>
@@ -46545,19 +46578,19 @@
         <v>212</v>
       </c>
       <c r="B213" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C213" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F213" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G213" s="8">
         <v>3888</v>
@@ -46781,19 +46814,19 @@
         <v>213</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C214" s="32" t="s">
         <v>0</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E214" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G214" s="8">
         <v>2625</v>
@@ -47017,19 +47050,19 @@
         <v>214</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C215" s="32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="G215" s="11">
         <v>0</v>
@@ -47256,19 +47289,19 @@
         <v>215</v>
       </c>
       <c r="B216" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C216" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="E216" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F216" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="G216" s="11">
         <v>0</v>
@@ -47495,7 +47528,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C217" s="32" t="s">
         <v>15</v>
@@ -47665,19 +47698,19 @@
         <v>217</v>
       </c>
       <c r="B218" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C218" s="32" t="s">
-        <v>437</v>
-      </c>
-      <c r="D218" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="C218" s="109" t="s">
+        <v>436</v>
+      </c>
+      <c r="D218" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="E218" s="4" t="s">
+      <c r="E218" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="F218" s="4" t="s">
-        <v>886</v>
+      <c r="F218" s="110" t="s">
+        <v>969</v>
       </c>
       <c r="G218" s="8">
         <v>222</v>
@@ -47901,7 +47934,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C219" s="32" t="s">
         <v>18</v>
@@ -48137,19 +48170,19 @@
         <v>219</v>
       </c>
       <c r="B220" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C220" s="32" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G220" s="21"/>
       <c r="H220" s="21"/>
@@ -48265,19 +48298,19 @@
         <v>220</v>
       </c>
       <c r="B221" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C221" s="32" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G221" s="21"/>
       <c r="H221" s="21"/>
@@ -48419,10 +48452,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C222" s="32" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>13</v>
@@ -48655,19 +48688,19 @@
         <v>222</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C223" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="D223" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D223" s="5" t="s">
-        <v>352</v>
-      </c>
       <c r="E223" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G223" s="41">
         <v>780</v>
@@ -48813,7 +48846,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C224" s="32" t="s">
         <v>109</v>
@@ -49019,7 +49052,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C225" s="32" t="s">
         <v>109</v>
@@ -49031,7 +49064,7 @@
         <v>100</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G225" s="8">
         <v>18</v>
@@ -49255,10 +49288,10 @@
         <v>225</v>
       </c>
       <c r="B226" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C226" s="32" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>114</v>
@@ -49267,7 +49300,7 @@
         <v>113</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G226" s="8">
         <v>1677</v>
@@ -49494,19 +49527,19 @@
         <v>226</v>
       </c>
       <c r="B227" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C227" s="52" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="G227" s="17"/>
       <c r="H227" s="17"/>
@@ -49592,19 +49625,19 @@
         <v>227</v>
       </c>
       <c r="B228" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C228" s="32" t="s">
+        <v>568</v>
+      </c>
+      <c r="C228" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="D228" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="D228" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E228" s="4" t="s">
+      <c r="E228" s="110" t="s">
         <v>189</v>
       </c>
-      <c r="F228" s="4" t="s">
-        <v>199</v>
+      <c r="F228" s="110" t="s">
+        <v>970</v>
       </c>
       <c r="G228" s="8">
         <v>152</v>
@@ -49828,19 +49861,19 @@
         <v>228</v>
       </c>
       <c r="B229" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C229" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F229" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="D229" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="G229" s="21"/>
       <c r="H229" s="21"/>
@@ -50034,19 +50067,19 @@
         <v>229</v>
       </c>
       <c r="B230" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C230" s="32" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="G230" s="14">
         <v>0</v>
@@ -50270,19 +50303,19 @@
         <v>230</v>
       </c>
       <c r="B231" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C231" s="32" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="E231" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="G231" s="27"/>
       <c r="H231" s="27"/>
@@ -50403,19 +50436,19 @@
         <v>231</v>
       </c>
       <c r="B232" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C232" s="32" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="E232" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="G232" s="17"/>
       <c r="H232" s="17"/>
@@ -50501,19 +50534,19 @@
         <v>232</v>
       </c>
       <c r="B233" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C233" s="32" t="s">
+        <v>525</v>
+      </c>
+      <c r="D233" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="D233" s="5" t="s">
-        <v>527</v>
       </c>
       <c r="E233" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G233" s="21"/>
       <c r="H233" s="21"/>
@@ -50713,19 +50746,19 @@
         <v>233</v>
       </c>
       <c r="B234" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C234" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="D234" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="E234" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F234" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="E234" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>273</v>
       </c>
       <c r="G234" s="8">
         <v>4</v>
@@ -50952,10 +50985,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C235" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>73</v>
@@ -51152,10 +51185,10 @@
         <v>235</v>
       </c>
       <c r="B236" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C236" s="32" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>73</v>
@@ -51352,19 +51385,19 @@
         <v>236</v>
       </c>
       <c r="B237" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C237" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="D237" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="D237" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="E237" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G237" s="8">
         <v>238</v>
@@ -51588,13 +51621,13 @@
         <v>237</v>
       </c>
       <c r="B238" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C238" s="32" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="E238" s="4" t="s">
         <v>26</v>
@@ -51716,19 +51749,19 @@
         <v>238</v>
       </c>
       <c r="B239" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C239" s="32" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="E239" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="G239" s="21"/>
       <c r="H239" s="21"/>
@@ -51844,7 +51877,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C240" s="32" t="s">
         <v>51</v>
@@ -51856,7 +51889,7 @@
         <v>47</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="G240" s="8">
         <v>371</v>
@@ -52080,19 +52113,19 @@
         <v>240</v>
       </c>
       <c r="B241" s="40" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C241" s="32" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F241" s="28" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="G241" s="21"/>
       <c r="H241" s="21"/>
@@ -52178,19 +52211,19 @@
         <v>241</v>
       </c>
       <c r="B242" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C242" s="32" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="G242" s="21"/>
       <c r="H242" s="21"/>
@@ -52315,19 +52348,19 @@
         <v>242</v>
       </c>
       <c r="B243" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C243" s="32" t="s">
-        <v>658</v>
-      </c>
-      <c r="D243" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="E243" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="C243" s="109" t="s">
+        <v>653</v>
+      </c>
+      <c r="D243" s="111" t="s">
+        <v>662</v>
+      </c>
+      <c r="E243" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="F243" s="4" t="s">
-        <v>684</v>
+      <c r="F243" s="110" t="s">
+        <v>971</v>
       </c>
       <c r="G243" s="21"/>
       <c r="H243" s="21"/>
@@ -52515,19 +52548,19 @@
         <v>243</v>
       </c>
       <c r="B244" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C244" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="D244" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="D244" s="5" t="s">
+      <c r="E244" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F244" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="G244" s="11">
         <v>0</v>
@@ -52751,19 +52784,19 @@
         <v>244</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C245" s="32" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E245" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G245" s="21"/>
       <c r="H245" s="21"/>
@@ -52927,19 +52960,19 @@
         <v>245</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C246" s="32" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E246" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="G246" s="21"/>
       <c r="H246" s="21"/>
@@ -53089,19 +53122,19 @@
         <v>246</v>
       </c>
       <c r="B247" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C247" s="32" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="G247" s="8">
         <v>77</v>
@@ -53325,19 +53358,19 @@
         <v>247</v>
       </c>
       <c r="B248" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C248" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="D248" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D248" s="5" t="s">
-        <v>262</v>
-      </c>
       <c r="E248" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G248" s="11">
         <v>615</v>
@@ -53555,19 +53588,19 @@
         <v>248</v>
       </c>
       <c r="B249" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C249" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D249" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F249" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="E249" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="G249" s="14">
         <v>0</v>
@@ -53794,19 +53827,19 @@
         <v>249</v>
       </c>
       <c r="B250" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C250" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D250" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="E250" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F250" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="E250" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>375</v>
       </c>
       <c r="G250" s="8">
         <v>15</v>
@@ -53928,19 +53961,19 @@
         <v>250</v>
       </c>
       <c r="B251" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C251" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="D251" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D251" s="5" t="s">
+      <c r="E251" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E251" s="4" t="s">
+      <c r="F251" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="F251" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="G251" s="8">
         <v>35</v>
@@ -54167,19 +54200,19 @@
         <v>251</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C252" s="32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="G252" s="14">
         <v>110</v>
@@ -54406,7 +54439,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C253" s="32" t="s">
         <v>78</v>
@@ -54418,7 +54451,7 @@
         <v>69</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="G253" s="8">
         <v>249</v>
@@ -54642,7 +54675,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C254" s="32" t="s">
         <v>78</v>
@@ -54812,19 +54845,19 @@
         <v>254</v>
       </c>
       <c r="B255" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C255" s="32" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E255" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G255" s="21"/>
       <c r="H255" s="21"/>
@@ -55006,19 +55039,19 @@
         <v>255</v>
       </c>
       <c r="B256" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C256" s="32" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="E256" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="G256" s="17"/>
       <c r="H256" s="17"/>
@@ -55104,19 +55137,19 @@
         <v>256</v>
       </c>
       <c r="B257" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C257" s="32" t="s">
         <v>138</v>
       </c>
       <c r="D257" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E257" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E257" s="4" t="s">
-        <v>353</v>
-      </c>
       <c r="F257" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G257" s="20">
         <v>230</v>
@@ -55334,7 +55367,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C258" s="32" t="s">
         <v>138</v>
@@ -55504,19 +55537,19 @@
         <v>258</v>
       </c>
       <c r="B259" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C259" s="32" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D259" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E259" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E259" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="F259" s="4" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="G259" s="20">
         <v>953</v>
@@ -55731,19 +55764,19 @@
         <v>259</v>
       </c>
       <c r="B260" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C260" s="32" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E260" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G260" s="21"/>
       <c r="H260" s="21"/>
@@ -55931,19 +55964,19 @@
         <v>260</v>
       </c>
       <c r="B261" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C261" s="32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="G261" s="14">
         <v>338</v>
@@ -56167,19 +56200,19 @@
         <v>261</v>
       </c>
       <c r="B262" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C262" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="D262" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="E262" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F262" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="E262" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F262" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="G262" s="8">
         <v>220</v>
@@ -56307,10 +56340,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C263" s="32" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>37</v>
@@ -56319,7 +56352,7 @@
         <v>35</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="G263" s="20">
         <v>2711</v>
@@ -56543,10 +56576,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C264" s="32" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>21</v>
@@ -56555,7 +56588,7 @@
         <v>1</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G264" s="14">
         <v>1625</v>
@@ -56779,19 +56812,19 @@
         <v>264</v>
       </c>
       <c r="B265" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C265" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E265" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G265" s="11">
         <v>0</v>
@@ -57009,10 +57042,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C266" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>90</v>
@@ -57021,7 +57054,7 @@
         <v>69</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G266" s="8">
         <v>11253</v>
@@ -57245,19 +57278,19 @@
         <v>266</v>
       </c>
       <c r="B267" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C267" s="32" t="s">
-        <v>547</v>
-      </c>
-      <c r="D267" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="E267" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F267" s="4" t="s">
-        <v>609</v>
+        <v>568</v>
+      </c>
+      <c r="C267" s="109" t="s">
+        <v>972</v>
+      </c>
+      <c r="D267" s="111" t="s">
+        <v>241</v>
+      </c>
+      <c r="E267" s="110" t="s">
+        <v>215</v>
+      </c>
+      <c r="F267" s="110" t="s">
+        <v>606</v>
       </c>
       <c r="G267" s="8">
         <v>405</v>
@@ -57481,10 +57514,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C268" s="32" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>93</v>
@@ -57493,7 +57526,7 @@
         <v>69</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="G268" s="8">
         <v>2765</v>
@@ -57717,10 +57750,10 @@
         <v>268</v>
       </c>
       <c r="B269" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C269" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>120</v>
@@ -57729,7 +57762,7 @@
         <v>118</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G269" s="8">
         <v>4407</v>
@@ -57953,19 +57986,19 @@
         <v>269</v>
       </c>
       <c r="B270" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C270" s="32" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="E270" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="G270" s="8">
         <v>204</v>
@@ -58189,19 +58222,19 @@
         <v>270</v>
       </c>
       <c r="B271" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C271" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="E271" s="4" t="s">
         <v>47</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="G271" s="11">
         <v>23</v>
@@ -58425,19 +58458,19 @@
         <v>271</v>
       </c>
       <c r="B272" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C272" s="32" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E272" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F272" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="F272" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="G272" s="8">
         <v>360</v>
@@ -58565,19 +58598,19 @@
         <v>272</v>
       </c>
       <c r="B273" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C273" s="32" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="G273" s="8">
         <v>1194</v>
@@ -58801,10 +58834,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C274" s="32" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>59</v>
@@ -58813,7 +58846,7 @@
         <v>60</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="G274" s="8">
         <v>2655</v>
@@ -59037,13 +59070,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C275" s="32" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E275" s="4" t="s">
         <v>100</v>
@@ -59273,10 +59306,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C276" s="32" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>11</v>
@@ -59467,10 +59500,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C277" s="32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>91</v>
@@ -59703,10 +59736,10 @@
         <v>277</v>
       </c>
       <c r="B278" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C278" s="32" t="s">
-        <v>650</v>
+        <v>568</v>
+      </c>
+      <c r="C278" s="109" t="s">
+        <v>973</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>84</v>
@@ -59714,8 +59747,8 @@
       <c r="E278" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F278" s="4" t="s">
-        <v>873</v>
+      <c r="F278" s="110" t="s">
+        <v>868</v>
       </c>
       <c r="G278" s="20">
         <v>5252</v>
@@ -59939,19 +59972,19 @@
         <v>278</v>
       </c>
       <c r="B279" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C279" s="32" t="s">
-        <v>650</v>
+        <v>568</v>
+      </c>
+      <c r="C279" s="109" t="s">
+        <v>973</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="E279" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F279" s="4" t="s">
-        <v>777</v>
+      <c r="F279" s="110" t="s">
+        <v>772</v>
       </c>
       <c r="G279" s="17"/>
       <c r="H279" s="17"/>
@@ -60073,19 +60106,19 @@
         <v>279</v>
       </c>
       <c r="B280" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C280" s="32" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E280" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F280" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G280" s="20">
         <v>73</v>
@@ -60309,19 +60342,19 @@
         <v>280</v>
       </c>
       <c r="B281" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C281" s="32" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="G281" s="8">
         <v>194598</v>
@@ -60545,10 +60578,10 @@
         <v>281</v>
       </c>
       <c r="B282" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C282" s="32" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>105</v>
@@ -60557,7 +60590,7 @@
         <v>100</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="G282" s="8">
         <v>326</v>
@@ -60781,13 +60814,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C283" s="32" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E283" s="4" t="s">
         <v>189</v>
@@ -61020,19 +61053,19 @@
         <v>283</v>
       </c>
       <c r="B284" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C284" s="32" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="E284" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="G284" s="8">
         <v>435</v>
@@ -61256,19 +61289,19 @@
         <v>284</v>
       </c>
       <c r="B285" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C285" s="32" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G285" s="21"/>
       <c r="H285" s="21"/>
@@ -61444,19 +61477,19 @@
         <v>285</v>
       </c>
       <c r="B286" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C286" s="32" t="s">
+        <v>533</v>
+      </c>
+      <c r="D286" s="5" t="s">
         <v>534</v>
-      </c>
-      <c r="D286" s="5" t="s">
-        <v>535</v>
       </c>
       <c r="E286" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="G286" s="21"/>
       <c r="H286" s="21"/>
@@ -61653,19 +61686,19 @@
         <v>286</v>
       </c>
       <c r="B287" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C287" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E287" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F287" s="4" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="G287" s="8">
         <v>392</v>
@@ -61889,19 +61922,19 @@
         <v>287</v>
       </c>
       <c r="B288" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C288" s="32" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="G288" s="21"/>
       <c r="H288" s="21"/>
@@ -62060,7 +62093,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C289" s="32" t="s">
         <v>96</v>
@@ -62218,7 +62251,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C290" s="32" t="s">
         <v>96</v>
@@ -62388,19 +62421,19 @@
         <v>290</v>
       </c>
       <c r="B291" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C291" s="32" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F291" s="4" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="G291" s="8">
         <v>800</v>
@@ -62627,10 +62660,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C292" s="32" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>157</v>
@@ -62639,7 +62672,7 @@
         <v>153</v>
       </c>
       <c r="F292" s="4" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="G292" s="8">
         <v>2283</v>
@@ -62863,10 +62896,10 @@
         <v>292</v>
       </c>
       <c r="B293" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C293" s="32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>85</v>
@@ -63099,19 +63132,19 @@
         <v>293</v>
       </c>
       <c r="B294" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C294" s="32" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="E294" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F294" s="4" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G294" s="8">
         <v>431</v>
@@ -63335,19 +63368,19 @@
         <v>294</v>
       </c>
       <c r="B295" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C295" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D295" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="D295" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E295" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="G295" s="8">
         <v>3443</v>
@@ -63571,19 +63604,19 @@
         <v>295</v>
       </c>
       <c r="B296" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C296" s="32" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="E296" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F296" s="4" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="G296" s="21"/>
       <c r="H296" s="21"/>
@@ -63703,19 +63736,19 @@
         <v>296</v>
       </c>
       <c r="B297" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C297" s="32" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="E297" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F297" s="4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G297" s="11">
         <v>204</v>
@@ -63939,7 +63972,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C298" s="32" t="s">
         <v>43</v>
@@ -63951,7 +63984,7 @@
         <v>189</v>
       </c>
       <c r="F298" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G298" s="8">
         <v>891</v>
@@ -64175,7 +64208,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C299" s="32" t="s">
         <v>43</v>
@@ -64411,7 +64444,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C300" s="32" t="s">
         <v>43</v>
@@ -64423,7 +64456,7 @@
         <v>41</v>
       </c>
       <c r="F300" s="4" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G300" s="8">
         <v>2957</v>
@@ -64647,7 +64680,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C301" s="32" t="s">
         <v>43</v>
@@ -64659,7 +64692,7 @@
         <v>189</v>
       </c>
       <c r="F301" s="4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G301" s="14">
         <v>1897</v>
@@ -64883,19 +64916,19 @@
         <v>301</v>
       </c>
       <c r="B302" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C302" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D302" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="D302" s="5" t="s">
+      <c r="E302" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F302" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="E302" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F302" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="G302" s="8">
         <v>2422</v>
@@ -65119,19 +65152,19 @@
         <v>302</v>
       </c>
       <c r="B303" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C303" s="32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D303" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F303" s="4" t="s">
         <v>238</v>
-      </c>
-      <c r="E303" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F303" s="4" t="s">
-        <v>239</v>
       </c>
       <c r="G303" s="8">
         <v>871</v>
@@ -65355,19 +65388,19 @@
         <v>303</v>
       </c>
       <c r="B304" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C304" s="32" t="s">
         <v>67</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E304" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F304" s="4" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="G304" s="8">
         <v>215</v>
@@ -65591,7 +65624,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C305" s="32" t="s">
         <v>67</v>
@@ -65603,7 +65636,7 @@
         <v>69</v>
       </c>
       <c r="F305" s="4" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G305" s="8">
         <v>1447</v>
@@ -65827,19 +65860,19 @@
         <v>305</v>
       </c>
       <c r="B306" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C306" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D306" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D306" s="5" t="s">
+      <c r="E306" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F306" s="4" t="s">
         <v>218</v>
-      </c>
-      <c r="E306" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F306" s="4" t="s">
-        <v>219</v>
       </c>
       <c r="G306" s="11">
         <v>120</v>
@@ -66045,19 +66078,19 @@
         <v>306</v>
       </c>
       <c r="B307" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C307" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="D307" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D307" s="5" t="s">
+      <c r="E307" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F307" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="E307" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F307" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="G307" s="8">
         <v>51</v>
@@ -66281,10 +66314,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C308" s="32" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>127</v>
@@ -66293,7 +66326,7 @@
         <v>118</v>
       </c>
       <c r="F308" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G308" s="8">
         <v>2863</v>
@@ -66517,10 +66550,10 @@
         <v>308</v>
       </c>
       <c r="B309" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C309" s="32" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>183</v>
@@ -66747,19 +66780,19 @@
         <v>309</v>
       </c>
       <c r="B310" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C310" s="32" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D310" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E310" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F310" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G310" s="11">
         <v>0</v>
@@ -66983,19 +67016,19 @@
         <v>310</v>
       </c>
       <c r="B311" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C311" s="32" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D311" s="5" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F311" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G311" s="21"/>
       <c r="H311" s="21"/>
@@ -67123,7 +67156,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C312" s="32" t="s">
         <v>178</v>
@@ -67135,7 +67168,7 @@
         <v>153</v>
       </c>
       <c r="F312" s="4" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G312" s="14">
         <v>121</v>
@@ -67359,19 +67392,19 @@
         <v>312</v>
       </c>
       <c r="B313" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C313" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="D313" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="D313" s="5" t="s">
-        <v>435</v>
       </c>
       <c r="E313" s="4" t="s">
         <v>144</v>
       </c>
       <c r="F313" s="4" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="G313" s="11">
         <v>0</v>
@@ -67595,19 +67628,19 @@
         <v>313</v>
       </c>
       <c r="B314" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C314" s="32" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D314" s="5" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F314" s="4" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G314" s="21"/>
       <c r="H314" s="21"/>
@@ -67723,19 +67756,19 @@
         <v>314</v>
       </c>
       <c r="B315" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C315" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D315" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E315" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F315" s="4" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="G315" s="8">
         <v>762</v>
@@ -67959,10 +67992,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C316" s="32" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>117</v>
@@ -67971,7 +68004,7 @@
         <v>118</v>
       </c>
       <c r="F316" s="4" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G316" s="21"/>
       <c r="H316" s="21"/>
@@ -68115,19 +68148,19 @@
         <v>316</v>
       </c>
       <c r="B317" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C317" s="32" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D317" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E317" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F317" s="4" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="G317" s="8">
         <v>1346</v>
@@ -68351,19 +68384,19 @@
         <v>317</v>
       </c>
       <c r="B318" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C318" s="32" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="D318" s="5" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="E318" s="4" t="s">
         <v>100</v>
       </c>
       <c r="F318" s="4" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G318" s="21"/>
       <c r="H318" s="21"/>
@@ -68539,19 +68572,19 @@
         <v>318</v>
       </c>
       <c r="B319" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C319" s="32" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D319" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E319" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F319" s="4" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="G319" s="21"/>
       <c r="H319" s="21"/>
@@ -68748,10 +68781,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C320" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>38</v>
@@ -68760,7 +68793,7 @@
         <v>35</v>
       </c>
       <c r="F320" s="4" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G320" s="8">
         <v>2598</v>
@@ -68980,23 +69013,23 @@
       </c>
     </row>
     <row r="321" spans="1:78" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="102">
+      <c r="A321" s="105">
         <v>320</v>
       </c>
-      <c r="B321" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C321" s="32" t="s">
-        <v>427</v>
-      </c>
-      <c r="D321" s="5" t="s">
+      <c r="B321" s="106" t="s">
+        <v>568</v>
+      </c>
+      <c r="C321" s="104" t="s">
+        <v>426</v>
+      </c>
+      <c r="D321" s="107" t="s">
         <v>102</v>
       </c>
-      <c r="E321" s="4" t="s">
+      <c r="E321" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="F321" s="4" t="s">
-        <v>893</v>
+      <c r="F321" s="108" t="s">
+        <v>887</v>
       </c>
       <c r="G321" s="8">
         <v>682</v>
@@ -69205,14 +69238,14 @@
       <c r="BW321" s="8">
         <v>41</v>
       </c>
-      <c r="BX321" s="8">
-        <v>45</v>
-      </c>
-      <c r="BY321" s="8">
-        <v>49</v>
-      </c>
-      <c r="BZ321" s="8">
-        <v>43</v>
+      <c r="BX321" s="33">
+        <v>0</v>
+      </c>
+      <c r="BY321" s="33">
+        <v>0</v>
+      </c>
+      <c r="BZ321" s="33">
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:78" ht="36" customHeight="1" x14ac:dyDescent="0.35">
@@ -69220,10 +69253,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="C322" s="32" t="s">
-        <v>427</v>
+        <v>568</v>
+      </c>
+      <c r="C322" s="109" t="s">
+        <v>426</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>102</v>
@@ -69231,8 +69264,8 @@
       <c r="E322" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F322" s="4" t="s">
-        <v>899</v>
+      <c r="F322" s="110" t="s">
+        <v>974</v>
       </c>
       <c r="G322" s="8">
         <v>145</v>
@@ -69456,7 +69489,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C323" s="32" t="s">
         <v>33</v>
@@ -69692,19 +69725,19 @@
         <v>323</v>
       </c>
       <c r="B324" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D324" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E324" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F324" s="4" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="G324" s="8">
         <v>1833</v>
@@ -69931,19 +69964,19 @@
         <v>324</v>
       </c>
       <c r="B325" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D325" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E325" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F325" s="4" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="G325" s="11">
         <v>0</v>
@@ -70167,19 +70200,19 @@
         <v>325</v>
       </c>
       <c r="B326" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C326" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D326" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F326" s="4" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="G326" s="11">
         <v>0</v>
@@ -70403,19 +70436,19 @@
         <v>326</v>
       </c>
       <c r="B327" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C327" s="32" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D327" s="5" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F327" s="4" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="G327" s="17"/>
       <c r="H327" s="17"/>
@@ -70501,19 +70534,19 @@
         <v>327</v>
       </c>
       <c r="B328" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C328" s="32" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D328" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E328" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F328" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G328" s="11">
         <v>0</v>
@@ -70635,19 +70668,19 @@
         <v>328</v>
       </c>
       <c r="B329" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D329" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E329" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F329" s="4" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="G329" s="8">
         <v>509</v>
@@ -70871,19 +70904,19 @@
         <v>329</v>
       </c>
       <c r="B330" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C330" s="32" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F330" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G330" s="8">
         <v>9592</v>
@@ -71107,19 +71140,19 @@
         <v>330</v>
       </c>
       <c r="B331" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C331" s="32" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="D331" s="5" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F331" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G331" s="21"/>
       <c r="H331" s="21"/>
@@ -71235,19 +71268,19 @@
         <v>331</v>
       </c>
       <c r="B332" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C332" s="32" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D332" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F332" s="4" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G332" s="8">
         <v>366</v>
@@ -71471,19 +71504,19 @@
         <v>332</v>
       </c>
       <c r="B333" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C333" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="D333" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="D333" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="E333" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F333" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G333" s="8">
         <v>259</v>
@@ -71611,19 +71644,19 @@
         <v>333</v>
       </c>
       <c r="B334" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>180</v>
       </c>
       <c r="D334" s="5" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E334" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F334" s="4" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G334" s="11">
         <v>1231</v>
@@ -71850,19 +71883,19 @@
         <v>334</v>
       </c>
       <c r="B335" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C335" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="D335" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D335" s="5" t="s">
+      <c r="E335" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F335" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="E335" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F335" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="G335" s="8">
         <v>185</v>
@@ -72086,19 +72119,19 @@
         <v>335</v>
       </c>
       <c r="B336" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C336" s="32" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="D336" s="5" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="E336" s="4" t="s">
         <v>189</v>
       </c>
       <c r="F336" s="4" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="G336" s="17"/>
       <c r="H336" s="17"/>
@@ -72184,10 +72217,10 @@
         <v>336</v>
       </c>
       <c r="B337" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C337" s="32" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>31</v>
@@ -72196,7 +72229,7 @@
         <v>26</v>
       </c>
       <c r="F337" s="4" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="G337" s="8">
         <v>1169</v>
@@ -72420,19 +72453,19 @@
         <v>337</v>
       </c>
       <c r="B338" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C338" s="32" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D338" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E338" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F338" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="E338" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F338" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="G338" s="8">
         <v>500</v>
@@ -72656,13 +72689,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C339" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="D339" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="D339" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="E339" s="4" t="s">
         <v>189</v>
@@ -72892,19 +72925,19 @@
         <v>339</v>
       </c>
       <c r="B340" s="39" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C340" s="32" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D340" s="5" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E340" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F340" s="4" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="G340" s="21"/>
       <c r="H340" s="21"/>
@@ -73083,19 +73116,19 @@
         <v>340</v>
       </c>
       <c r="B341" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C341" s="32" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="D341" s="5" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="E341" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F341" s="4" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="G341" s="17"/>
       <c r="H341" s="17"/>
@@ -73181,19 +73214,19 @@
         <v>341</v>
       </c>
       <c r="B342" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C342" s="32" t="s">
+        <v>522</v>
+      </c>
+      <c r="D342" s="5" t="s">
         <v>523</v>
-      </c>
-      <c r="D342" s="5" t="s">
-        <v>524</v>
       </c>
       <c r="E342" s="4" t="s">
         <v>35</v>
       </c>
       <c r="F342" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G342" s="14">
         <v>0</v>
@@ -73417,19 +73450,19 @@
         <v>342</v>
       </c>
       <c r="B343" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C343" s="32" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="D343" s="5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="E343" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F343" s="4" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="G343" s="17"/>
       <c r="H343" s="17"/>
@@ -73557,19 +73590,19 @@
         <v>343</v>
       </c>
       <c r="B344" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C344" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="D344" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D344" s="5" t="s">
+      <c r="E344" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F344" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="E344" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F344" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="G344" s="11">
         <v>350</v>
@@ -73793,19 +73826,19 @@
         <v>344</v>
       </c>
       <c r="B345" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C345" s="32" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="D345" s="5" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="E345" s="4" t="s">
         <v>153</v>
       </c>
       <c r="F345" s="4" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="G345" s="17"/>
       <c r="H345" s="17"/>
@@ -73891,19 +73924,19 @@
         <v>345</v>
       </c>
       <c r="B346" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C346" s="32" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D346" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E346" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G346" s="11">
         <v>0</v>
@@ -74127,19 +74160,19 @@
         <v>346</v>
       </c>
       <c r="B347" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C347" s="32" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D347" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F347" s="4" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="G347" s="8">
         <v>95</v>
@@ -74363,19 +74396,19 @@
         <v>347</v>
       </c>
       <c r="B348" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C348" s="32" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D348" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E348" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F348" s="4" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="G348" s="14">
         <v>0</v>
@@ -74599,19 +74632,19 @@
         <v>348</v>
       </c>
       <c r="B349" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C349" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="D349" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D349" s="5" t="s">
+      <c r="E349" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E349" s="4" t="s">
+      <c r="F349" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="F349" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="G349" s="8">
         <v>60</v>
@@ -74733,19 +74766,19 @@
         <v>349</v>
       </c>
       <c r="B350" s="40" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C350" s="32" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>194</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F350" s="28" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="G350" s="21"/>
       <c r="H350" s="21"/>
@@ -74855,7 +74888,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C351" s="85" t="s">
         <v>193</v>
@@ -74864,10 +74897,10 @@
         <v>194</v>
       </c>
       <c r="E351" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F351" s="4" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="G351" s="8">
         <v>143</v>
@@ -75031,19 +75064,19 @@
         <v>351</v>
       </c>
       <c r="B352" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C352" s="85" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="D352" s="5" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="E352" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="G352" s="17"/>
       <c r="H352" s="17"/>
@@ -75153,19 +75186,19 @@
         <v>352</v>
       </c>
       <c r="B353" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C353" s="85" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D353" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E353" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F353" s="4" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G353" s="14">
         <v>0</v>
@@ -75389,19 +75422,19 @@
         <v>353</v>
       </c>
       <c r="B354" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C354" s="85" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D354" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E354" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F354" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G354" s="8">
         <v>767</v>
@@ -75625,10 +75658,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C355" s="85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D355" s="5" t="s">
         <v>22</v>
@@ -75795,19 +75828,19 @@
         <v>355</v>
       </c>
       <c r="B356" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C356" s="85" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="D356" s="5" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="E356" s="4" t="s">
         <v>60</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="G356" s="17"/>
       <c r="H356" s="17"/>
@@ -75893,19 +75926,19 @@
         <v>356</v>
       </c>
       <c r="B357" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C357" s="85" t="s">
+        <v>429</v>
+      </c>
+      <c r="D357" s="5" t="s">
         <v>430</v>
-      </c>
-      <c r="D357" s="5" t="s">
-        <v>431</v>
       </c>
       <c r="E357" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G357" s="8">
         <v>1698</v>
@@ -76129,19 +76162,19 @@
         <v>357</v>
       </c>
       <c r="B358" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C358" s="85" t="s">
+        <v>338</v>
+      </c>
+      <c r="D358" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D358" s="5" t="s">
-        <v>340</v>
-      </c>
       <c r="E358" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F358" s="4" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G358" s="8">
         <v>1427</v>
@@ -76335,19 +76368,19 @@
         <v>358</v>
       </c>
       <c r="B359" s="38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C359" s="85" t="s">
+        <v>375</v>
+      </c>
+      <c r="D359" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D359" s="5" t="s">
-        <v>377</v>
-      </c>
       <c r="E359" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F359" s="4" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="G359" s="20">
         <v>51</v>
@@ -76567,6 +76600,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BZ359" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:CA351">
     <sortCondition ref="C1:C351"/>
   </sortState>
